--- a/src/main/insert personenbezogene Daten/11 aussertariflicher Verguetungsbestandteil.xlsx
+++ b/src/main/insert personenbezogene Daten/11 aussertariflicher Verguetungsbestandteil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_aussertariflicher_verguetungsbestandteil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC20C6-46D1-40DE-9B0F-8FD8AEF6FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE5BAF-A79C-424F-A84B-D873CEAC7526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1932" yWindow="3504" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>gueltig ab:</t>
   </si>
   <si>
-    <t>01.05.2023</t>
+    <t>01.01.2024</t>
   </si>
 </sst>
 </file>
